--- a/fuentes/contenidos/grado07/guion05/Escaleta_MA_07_05_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion05/Escaleta_MA_07_05_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\---Adriana\Documents\GitHub\Matematicas\fuentes\contenidos\grado07\guion05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cen_3f_cdo_pc10a\Google Drive\2. AulaPlaneta\EDICION\2. MA_07_05_CO\Copia GH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -521,69 +521,42 @@
     <t>Interactivo para repasar el concepto de fracción decimal</t>
   </si>
   <si>
-    <t>Actividad para represnetar un número racional como decimal</t>
-  </si>
-  <si>
     <t>Actividades sobre La representación decimal de un número racional</t>
   </si>
   <si>
     <t>Interactivo sobre los conceptos básicos de los números decimales</t>
   </si>
   <si>
-    <t>Actividad que propone asociar una fracción al tipo de decimal que se obtiene al realizar la conversión</t>
-  </si>
-  <si>
     <t>Actvidad para completar enunciados sobre números racionales decimales</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad para identificar y clasificar expresiones decimales. </t>
-  </si>
-  <si>
     <t>Actividades sobre La clasificación de los números decimales racionales</t>
   </si>
   <si>
     <t>Actividad para identificar la expresión racional de un número decimal</t>
   </si>
   <si>
-    <t>Actividad para clasificar números decimales</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actividad para analizar datos en una situación </t>
   </si>
   <si>
     <t>Actividades sobre La conversión de un número decimal a fracción</t>
   </si>
   <si>
-    <t>Actividad para reconocer números racionales en la recta</t>
-  </si>
-  <si>
     <t>Actividad para determinar la validez de una afirmación</t>
   </si>
   <si>
     <t xml:space="preserve">Actividad para identificar las coordenadas correspondientes a una figura dada </t>
   </si>
   <si>
-    <t>Actividad para establecer relaciones     do orden entre fracciones</t>
-  </si>
-  <si>
-    <t>Actvidad para ordenar deciamles a partir de condiciones dadas</t>
-  </si>
-  <si>
     <t>Actividad sobre la represenatción de números racionales</t>
   </si>
   <si>
     <t>Actividad sobre La ubicación de puntos en el plano cartesiano</t>
   </si>
   <si>
-    <t>Actividad sobre El orden de los números racionales</t>
-  </si>
-  <si>
     <t>Actividad que propone realizar un experimento para hallar decimales del número pi</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad que propone realziar el procedimieento para relacionar las figuras de las notas musicales con las fracciones </t>
-  </si>
-  <si>
     <t>Evalúa tus conocimientos sobre el tema Los numeros racionales</t>
   </si>
   <si>
@@ -831,6 +804,33 @@
   </si>
   <si>
     <t>Secuencia de imágenes para explicar fracción inversa, negativa y opuesta</t>
+  </si>
+  <si>
+    <t>Actividad para representar un número racional como decimal</t>
+  </si>
+  <si>
+    <t>Actividad que propone asociar una fracción al tipo de decimal que le corresponda</t>
+  </si>
+  <si>
+    <t>Actividad para identificar y clasificar expresiones decimales</t>
+  </si>
+  <si>
+    <t>Actividad para determinar la fracción generatriz de un número decimal</t>
+  </si>
+  <si>
+    <t>Actividad para representar números racionales en la recta</t>
+  </si>
+  <si>
+    <t>Actividad para establecer relaciones de orden entre fracciones</t>
+  </si>
+  <si>
+    <t>Actividad para ordenar decimales a partir de condiciones dadas</t>
+  </si>
+  <si>
+    <t>Actividad sobre El orden en los racionales</t>
+  </si>
+  <si>
+    <t>Actividad que propone relacionar las figuras de las notas musicales con los fraccionarios</t>
   </si>
 </sst>
 </file>
@@ -1145,13 +1145,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1191,15 +1200,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1508,126 +1508,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="23" style="19" customWidth="1"/>
-    <col min="4" max="4" width="49.54296875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.453125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.42578125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="25" customWidth="1"/>
     <col min="9" max="9" width="11" style="25" customWidth="1"/>
-    <col min="10" max="10" width="42.36328125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="13.36328125" style="19" customWidth="1"/>
-    <col min="13" max="14" width="9.26953125" style="19" customWidth="1"/>
-    <col min="15" max="15" width="52.7265625" style="41" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" style="25" customWidth="1"/>
-    <col min="17" max="17" width="20.453125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="42.42578125" style="19" customWidth="1"/>
+    <col min="11" max="12" width="13.42578125" style="19" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="52.7109375" style="41" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="25" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="25" customWidth="1"/>
     <col min="18" max="18" width="23" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7265625" style="19" customWidth="1"/>
-    <col min="22" max="16384" width="11.453125" style="19"/>
+    <col min="19" max="19" width="20.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" style="19" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:23" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="44" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="59" t="s">
+      <c r="T1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="43" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="49"/>
+    <row r="2" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="13" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="58"/>
-    </row>
-    <row r="3" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="43"/>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -1638,7 +1637,7 @@
         <v>123</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="11"/>
@@ -1665,7 +1664,7 @@
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="39" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="P3" s="22" t="s">
         <v>19</v>
@@ -1674,25 +1673,25 @@
         <v>6</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="U3" s="32" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="V3" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W3" s="36">
         <v>45261</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1703,7 +1702,7 @@
         <v>123</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="21"/>
@@ -1735,19 +1734,19 @@
         <v>8</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="T4" s="35" t="s">
         <v>123</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1758,10 +1757,10 @@
         <v>123</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="15" t="s">
@@ -1774,7 +1773,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>20</v>
@@ -1787,7 +1786,7 @@
         <v>33</v>
       </c>
       <c r="O5" s="39" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="P5" s="22" t="s">
         <v>19</v>
@@ -1796,25 +1795,25 @@
         <v>6</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S5" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="U5" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V5" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W5" s="36">
         <v>47088</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1825,7 +1824,7 @@
         <v>123</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
@@ -1850,7 +1849,7 @@
       <c r="M6" s="7"/>
       <c r="N6" s="14"/>
       <c r="O6" s="39" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="P6" s="22" t="s">
         <v>19</v>
@@ -1859,19 +1858,19 @@
         <v>6</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S6" s="32" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="T6" s="34" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="U6" s="32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1882,7 +1881,7 @@
         <v>123</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
@@ -1896,7 +1895,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>20</v>
@@ -1909,7 +1908,7 @@
         <v>40</v>
       </c>
       <c r="O7" s="39" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="P7" s="22" t="s">
         <v>19</v>
@@ -1918,25 +1917,25 @@
         <v>6</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S7" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T7" s="34" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V7" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W7" s="36">
         <v>37987</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1947,10 +1946,10 @@
         <v>123</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="15" t="s">
@@ -1963,7 +1962,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>19</v>
@@ -1981,19 +1980,19 @@
         <v>8</v>
       </c>
       <c r="R8" s="33" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="S8" s="32" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="T8" s="35" t="s">
         <v>128</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -2004,13 +2003,13 @@
         <v>123</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>129</v>
@@ -2035,7 +2034,7 @@
         <v>118</v>
       </c>
       <c r="O9" s="39" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="P9" s="22" t="s">
         <v>19</v>
@@ -2044,25 +2043,25 @@
         <v>6</v>
       </c>
       <c r="R9" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T9" s="34" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W9" s="36">
         <v>37987</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -2073,10 +2072,10 @@
         <v>123</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="15" t="s">
@@ -2089,7 +2088,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>20</v>
@@ -2109,25 +2108,25 @@
         <v>6</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S10" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="U10" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W10" s="36">
         <v>47088</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -2138,10 +2137,10 @@
         <v>123</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="15" t="s">
@@ -2172,7 +2171,7 @@
         <v>5</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="S11" s="32" t="s">
         <v>135</v>
@@ -2181,10 +2180,10 @@
         <v>131</v>
       </c>
       <c r="U11" s="32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -2195,7 +2194,7 @@
         <v>123</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
@@ -2209,7 +2208,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>20</v>
@@ -2229,25 +2228,25 @@
         <v>6</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S12" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T12" s="34" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="U12" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W12" s="36">
         <v>38353</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
@@ -2258,7 +2257,7 @@
         <v>123</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
@@ -2272,7 +2271,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>20</v>
@@ -2285,7 +2284,7 @@
         <v>44</v>
       </c>
       <c r="O13" s="39" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="P13" s="22" t="s">
         <v>20</v>
@@ -2294,25 +2293,25 @@
         <v>6</v>
       </c>
       <c r="R13" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="S13" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="T13" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="S13" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="T13" s="34" t="s">
-        <v>215</v>
-      </c>
       <c r="U13" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V13" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W13" s="36">
         <v>38353</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
@@ -2323,10 +2322,10 @@
         <v>123</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="15" t="s">
@@ -2339,7 +2338,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>20</v>
@@ -2359,25 +2358,25 @@
         <v>6</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S14" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T14" s="34" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="U14" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W14" s="36">
         <v>38353</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -2388,7 +2387,7 @@
         <v>123</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
@@ -2402,7 +2401,7 @@
         <v>19</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>19</v>
@@ -2420,7 +2419,7 @@
         <v>8</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="S15" s="32" t="s">
         <v>135</v>
@@ -2429,10 +2428,10 @@
         <v>135</v>
       </c>
       <c r="U15" s="32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -2443,7 +2442,7 @@
         <v>123</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
@@ -2457,7 +2456,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>168</v>
+        <v>261</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>19</v>
@@ -2475,19 +2474,19 @@
         <v>8</v>
       </c>
       <c r="R16" s="33" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="S16" s="32" t="s">
         <v>135</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="U16" s="32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -2498,7 +2497,7 @@
         <v>123</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
@@ -2512,7 +2511,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>20</v>
@@ -2525,7 +2524,7 @@
         <v>27</v>
       </c>
       <c r="O17" s="39" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="P17" s="22" t="s">
         <v>20</v>
@@ -2534,25 +2533,25 @@
         <v>6</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S17" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T17" s="34" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W17" s="36">
         <v>38718</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
@@ -2563,7 +2562,7 @@
         <v>123</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
@@ -2577,7 +2576,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>20</v>
@@ -2590,7 +2589,7 @@
         <v>43</v>
       </c>
       <c r="O18" s="39" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="P18" s="22" t="s">
         <v>19</v>
@@ -2599,25 +2598,25 @@
         <v>6</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T18" s="34" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="U18" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W18" s="36">
         <v>38718</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
@@ -2628,10 +2627,10 @@
         <v>123</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="15" t="s">
@@ -2644,7 +2643,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>20</v>
@@ -2664,25 +2663,25 @@
         <v>6</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S19" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T19" s="34" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="U19" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W19" s="36">
         <v>38718</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
@@ -2693,7 +2692,7 @@
         <v>123</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
@@ -2707,7 +2706,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>20</v>
@@ -2720,7 +2719,7 @@
         <v>22</v>
       </c>
       <c r="O20" s="39" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="P20" s="22" t="s">
         <v>19</v>
@@ -2729,25 +2728,25 @@
         <v>6</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S20" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="T20" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="T20" s="34" t="s">
-        <v>218</v>
-      </c>
       <c r="U20" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V20" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W20" s="36">
         <v>38718</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
@@ -2758,7 +2757,7 @@
         <v>123</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="21"/>
@@ -2772,7 +2771,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>19</v>
@@ -2790,19 +2789,19 @@
         <v>8</v>
       </c>
       <c r="R21" s="33" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="S21" s="32" t="s">
         <v>135</v>
       </c>
       <c r="T21" s="35" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="U21" s="32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
@@ -2813,7 +2812,7 @@
         <v>123</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
@@ -2827,7 +2826,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>162</v>
+        <v>258</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>19</v>
@@ -2845,19 +2844,19 @@
         <v>8</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="S22" s="32" t="s">
         <v>135</v>
       </c>
       <c r="T22" s="35" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="U22" s="32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
@@ -2868,7 +2867,7 @@
         <v>123</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="21"/>
@@ -2879,10 +2878,10 @@
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>20</v>
@@ -2895,7 +2894,7 @@
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="39" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="P23" s="22" t="s">
         <v>20</v>
@@ -2904,25 +2903,25 @@
         <v>6</v>
       </c>
       <c r="R23" s="33" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="S23" s="32" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="T23" s="34" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="U23" s="32" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="V23" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W23" s="36">
         <v>39814</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
@@ -2933,10 +2932,10 @@
         <v>123</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="15" t="s">
@@ -2949,7 +2948,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>20</v>
@@ -2962,7 +2961,7 @@
         <v>36</v>
       </c>
       <c r="O24" s="39" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="P24" s="22" t="s">
         <v>19</v>
@@ -2971,22 +2970,22 @@
         <v>6</v>
       </c>
       <c r="R24" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S24" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T24" s="34" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="U24" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V24" s="19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>15</v>
       </c>
@@ -2997,7 +2996,7 @@
         <v>123</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="21"/>
@@ -3011,7 +3010,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>20</v>
@@ -3029,19 +3028,19 @@
         <v>6</v>
       </c>
       <c r="R25" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S25" s="32" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="T25" s="34" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="U25" s="32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>15</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>123</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
@@ -3066,7 +3065,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>20</v>
@@ -3079,7 +3078,7 @@
         <v>38</v>
       </c>
       <c r="O26" s="39" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="P26" s="22" t="s">
         <v>20</v>
@@ -3088,25 +3087,25 @@
         <v>6</v>
       </c>
       <c r="R26" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S26" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T26" s="34" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="U26" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V26" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W26" s="36">
         <v>40909</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
@@ -3117,7 +3116,7 @@
         <v>123</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="21"/>
@@ -3131,7 +3130,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>162</v>
+        <v>258</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>20</v>
@@ -3144,7 +3143,7 @@
         <v>39</v>
       </c>
       <c r="O27" s="39" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="P27" s="22" t="s">
         <v>19</v>
@@ -3153,25 +3152,25 @@
         <v>6</v>
       </c>
       <c r="R27" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S27" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T27" s="34" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="U27" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V27" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W27" s="36">
         <v>41275</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>15</v>
       </c>
@@ -3182,10 +3181,10 @@
         <v>123</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="15" t="s">
@@ -3198,7 +3197,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>20</v>
@@ -3218,25 +3217,25 @@
         <v>6</v>
       </c>
       <c r="R28" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S28" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T28" s="34" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="U28" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V28" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W28" s="36">
         <v>40909</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>15</v>
       </c>
@@ -3247,7 +3246,7 @@
         <v>123</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="21"/>
@@ -3261,7 +3260,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>20</v>
@@ -3281,25 +3280,25 @@
         <v>6</v>
       </c>
       <c r="R29" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S29" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T29" s="34" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="U29" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V29" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W29" s="36">
         <v>40909</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
@@ -3310,7 +3309,7 @@
         <v>123</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="21"/>
@@ -3337,7 +3336,7 @@
         <v>39</v>
       </c>
       <c r="O30" s="39" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="P30" s="22" t="s">
         <v>19</v>
@@ -3346,25 +3345,25 @@
         <v>6</v>
       </c>
       <c r="R30" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S30" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T30" s="34" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="U30" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V30" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W30" s="36">
         <v>41640</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>15</v>
       </c>
@@ -3375,10 +3374,10 @@
         <v>123</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="15" t="s">
@@ -3391,7 +3390,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>20</v>
@@ -3404,7 +3403,7 @@
         <v>121</v>
       </c>
       <c r="O31" s="39" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="P31" s="22" t="s">
         <v>19</v>
@@ -3413,25 +3412,25 @@
         <v>6</v>
       </c>
       <c r="R31" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S31" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T31" s="34" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="U31" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V31" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W31" s="36">
         <v>41640</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>15</v>
       </c>
@@ -3442,7 +3441,7 @@
         <v>123</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="21"/>
@@ -3456,7 +3455,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>19</v>
@@ -3474,19 +3473,19 @@
         <v>8</v>
       </c>
       <c r="R32" s="33" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="S32" s="32" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="T32" s="35" t="s">
         <v>152</v>
       </c>
       <c r="U32" s="32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>15</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>123</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="21"/>
@@ -3511,7 +3510,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>19</v>
@@ -3531,19 +3530,19 @@
         <v>8</v>
       </c>
       <c r="R33" s="33" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="S33" s="32" t="s">
         <v>135</v>
       </c>
       <c r="T33" s="35" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="U33" s="32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>15</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>123</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="21"/>
@@ -3568,7 +3567,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>162</v>
+        <v>258</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>20</v>
@@ -3581,7 +3580,7 @@
         <v>33</v>
       </c>
       <c r="O34" s="39" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="P34" s="22" t="s">
         <v>19</v>
@@ -3590,25 +3589,25 @@
         <v>6</v>
       </c>
       <c r="R34" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S34" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T34" s="34" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="U34" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V34" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W34" s="36">
         <v>42005</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>15</v>
       </c>
@@ -3619,10 +3618,10 @@
         <v>123</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="15" t="s">
@@ -3635,7 +3634,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>183</v>
+        <v>267</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>20</v>
@@ -3648,7 +3647,7 @@
         <v>121</v>
       </c>
       <c r="O35" s="39" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="P35" s="22" t="s">
         <v>19</v>
@@ -3657,25 +3656,25 @@
         <v>6</v>
       </c>
       <c r="R35" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S35" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T35" s="34" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="U35" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V35" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W35" s="36">
         <v>41640</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>15</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>123</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
@@ -3700,7 +3699,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>19</v>
@@ -3718,19 +3717,19 @@
         <v>8</v>
       </c>
       <c r="R36" s="33" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="S36" s="32" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="T36" s="35" t="s">
         <v>156</v>
       </c>
       <c r="U36" s="32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>15</v>
       </c>
@@ -3741,7 +3740,7 @@
         <v>123</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="21"/>
@@ -3755,7 +3754,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>19</v>
@@ -3766,7 +3765,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="39" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="P37" s="22" t="s">
         <v>19</v>
@@ -3775,7 +3774,7 @@
         <v>8</v>
       </c>
       <c r="R37" s="33" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="S37" s="32" t="s">
         <v>135</v>
@@ -3784,10 +3783,10 @@
         <v>157</v>
       </c>
       <c r="U37" s="32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>15</v>
       </c>
@@ -3798,7 +3797,7 @@
         <v>123</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="21"/>
@@ -3812,7 +3811,7 @@
         <v>20</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>20</v>
@@ -3832,7 +3831,7 @@
       <c r="T38" s="35"/>
       <c r="U38" s="32"/>
     </row>
-    <row r="39" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>15</v>
       </c>
@@ -3843,7 +3842,7 @@
         <v>123</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="21"/>
@@ -3857,7 +3856,7 @@
         <v>20</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>20</v>
@@ -3877,25 +3876,25 @@
         <v>6</v>
       </c>
       <c r="R39" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S39" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T39" s="34" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="U39" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V39" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W39" s="36">
         <v>42005</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>15</v>
       </c>
@@ -3906,12 +3905,12 @@
         <v>123</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="21"/>
       <c r="G40" s="29" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H40" s="22">
         <v>38</v>
@@ -3931,7 +3930,7 @@
         <v>52</v>
       </c>
       <c r="O40" s="39" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="P40" s="22" t="s">
         <v>20</v>
@@ -3940,25 +3939,25 @@
         <v>6</v>
       </c>
       <c r="R40" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="S40" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="T40" s="34" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="U40" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="V40" s="19" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="W40" s="36">
         <v>42005</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="20"/>
       <c r="C41" s="30"/>
@@ -3981,7 +3980,7 @@
       <c r="T41" s="28"/>
       <c r="U41" s="26"/>
     </row>
-    <row r="42" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="20"/>
       <c r="C42" s="30"/>
@@ -4004,7 +4003,7 @@
       <c r="T42" s="28"/>
       <c r="U42" s="26"/>
     </row>
-    <row r="43" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="20"/>
       <c r="C43" s="30"/>
@@ -4027,7 +4026,7 @@
       <c r="T43" s="28"/>
       <c r="U43" s="26"/>
     </row>
-    <row r="44" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="20"/>
       <c r="C44" s="30"/>
@@ -4050,7 +4049,7 @@
       <c r="T44" s="28"/>
       <c r="U44" s="26"/>
     </row>
-    <row r="45" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="20"/>
       <c r="C45" s="30"/>
@@ -4073,7 +4072,7 @@
       <c r="T45" s="28"/>
       <c r="U45" s="26"/>
     </row>
-    <row r="46" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="20"/>
       <c r="C46" s="30"/>
@@ -4096,7 +4095,7 @@
       <c r="T46" s="28"/>
       <c r="U46" s="26"/>
     </row>
-    <row r="47" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="20"/>
       <c r="C47" s="30"/>
@@ -4119,7 +4118,7 @@
       <c r="T47" s="28"/>
       <c r="U47" s="26"/>
     </row>
-    <row r="48" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="20"/>
       <c r="C48" s="30"/>
@@ -4142,7 +4141,7 @@
       <c r="T48" s="28"/>
       <c r="U48" s="26"/>
     </row>
-    <row r="49" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="20"/>
       <c r="C49" s="30"/>
@@ -4165,7 +4164,7 @@
       <c r="T49" s="28"/>
       <c r="U49" s="26"/>
     </row>
-    <row r="50" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="20"/>
       <c r="C50" s="30"/>
@@ -4188,7 +4187,7 @@
       <c r="T50" s="28"/>
       <c r="U50" s="26"/>
     </row>
-    <row r="51" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="20"/>
       <c r="C51" s="30"/>
@@ -4211,7 +4210,7 @@
       <c r="T51" s="28"/>
       <c r="U51" s="26"/>
     </row>
-    <row r="52" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="20"/>
       <c r="C52" s="30"/>
@@ -4234,7 +4233,7 @@
       <c r="T52" s="28"/>
       <c r="U52" s="26"/>
     </row>
-    <row r="53" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="20"/>
       <c r="C53" s="30"/>
@@ -4257,7 +4256,7 @@
       <c r="T53" s="28"/>
       <c r="U53" s="26"/>
     </row>
-    <row r="54" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="20"/>
       <c r="C54" s="30"/>
@@ -4280,7 +4279,7 @@
       <c r="T54" s="28"/>
       <c r="U54" s="26"/>
     </row>
-    <row r="55" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="20"/>
       <c r="C55" s="30"/>
@@ -4303,7 +4302,7 @@
       <c r="T55" s="28"/>
       <c r="U55" s="26"/>
     </row>
-    <row r="56" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="20"/>
       <c r="C56" s="30"/>
@@ -4326,7 +4325,7 @@
       <c r="T56" s="28"/>
       <c r="U56" s="26"/>
     </row>
-    <row r="57" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="20"/>
       <c r="C57" s="30"/>
@@ -4349,7 +4348,7 @@
       <c r="T57" s="28"/>
       <c r="U57" s="26"/>
     </row>
-    <row r="58" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="20"/>
       <c r="C58" s="30"/>
@@ -4372,7 +4371,7 @@
       <c r="T58" s="28"/>
       <c r="U58" s="26"/>
     </row>
-    <row r="59" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="20"/>
       <c r="C59" s="30"/>
@@ -4395,7 +4394,7 @@
       <c r="T59" s="28"/>
       <c r="U59" s="26"/>
     </row>
-    <row r="60" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="20"/>
       <c r="C60" s="30"/>
@@ -4418,7 +4417,7 @@
       <c r="T60" s="28"/>
       <c r="U60" s="26"/>
     </row>
-    <row r="61" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="20"/>
       <c r="C61" s="30"/>
@@ -4441,7 +4440,7 @@
       <c r="T61" s="28"/>
       <c r="U61" s="26"/>
     </row>
-    <row r="62" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="20"/>
       <c r="C62" s="30"/>
@@ -4464,7 +4463,7 @@
       <c r="T62" s="28"/>
       <c r="U62" s="26"/>
     </row>
-    <row r="63" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="20"/>
       <c r="C63" s="30"/>
@@ -4487,7 +4486,7 @@
       <c r="T63" s="28"/>
       <c r="U63" s="26"/>
     </row>
-    <row r="64" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="20"/>
       <c r="C64" s="30"/>
@@ -4510,7 +4509,7 @@
       <c r="T64" s="28"/>
       <c r="U64" s="26"/>
     </row>
-    <row r="65" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="20"/>
       <c r="C65" s="30"/>
@@ -4533,7 +4532,7 @@
       <c r="T65" s="28"/>
       <c r="U65" s="26"/>
     </row>
-    <row r="66" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="20"/>
       <c r="C66" s="30"/>
@@ -4556,7 +4555,7 @@
       <c r="T66" s="28"/>
       <c r="U66" s="26"/>
     </row>
-    <row r="67" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="20"/>
       <c r="C67" s="30"/>
@@ -4579,7 +4578,7 @@
       <c r="T67" s="28"/>
       <c r="U67" s="26"/>
     </row>
-    <row r="68" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="20"/>
       <c r="C68" s="30"/>
@@ -4602,7 +4601,7 @@
       <c r="T68" s="28"/>
       <c r="U68" s="26"/>
     </row>
-    <row r="69" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="20"/>
       <c r="C69" s="30"/>
@@ -4625,375 +4624,369 @@
       <c r="T69" s="28"/>
       <c r="U69" s="26"/>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5008,6 +5001,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5058,27 +5057,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" style="1"/>
-    <col min="14" max="14" width="24.26953125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.453125" style="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5095,7 +5094,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5119,7 +5118,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5138,7 +5137,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -5157,7 +5156,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -5173,7 +5172,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -5190,7 +5189,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -5207,7 +5206,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5222,7 +5221,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5237,7 +5236,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5252,7 +5251,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5267,7 +5266,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5282,7 +5281,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -5297,7 +5296,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5312,7 +5311,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5327,7 +5326,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5342,7 +5341,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -5356,7 +5355,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -5370,7 +5369,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -5384,7 +5383,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -5398,7 +5397,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5413,7 +5412,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5428,7 +5427,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5443,7 +5442,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -5458,7 +5457,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -5473,7 +5472,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -5488,7 +5487,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -5503,7 +5502,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -5518,7 +5517,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -5533,7 +5532,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -5548,7 +5547,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5563,7 +5562,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5578,7 +5577,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5593,7 +5592,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5608,7 +5607,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5623,7 +5622,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5638,7 +5637,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5653,7 +5652,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5668,7 +5667,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5683,7 +5682,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5698,7 +5697,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5713,7 +5712,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5728,7 +5727,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5743,7 +5742,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5758,7 +5757,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5773,7 +5772,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5788,7 +5787,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -5803,7 +5802,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -5818,7 +5817,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5830,7 +5829,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5842,7 +5841,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5855,7 +5854,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5868,7 +5867,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5881,7 +5880,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -5894,7 +5893,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -5907,7 +5906,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5920,7 +5919,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5933,7 +5932,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5946,7 +5945,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5959,7 +5958,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5972,7 +5971,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5985,7 +5984,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5998,7 +5997,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -6011,7 +6010,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -6024,7 +6023,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -6037,7 +6036,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -6050,7 +6049,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -6063,7 +6062,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -6076,7 +6075,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -6089,7 +6088,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -6102,7 +6101,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -6116,7 +6115,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6130,7 +6129,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -6144,7 +6143,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6158,7 +6157,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -6172,7 +6171,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6186,7 +6185,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -6200,7 +6199,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6214,7 +6213,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6228,7 +6227,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -6242,7 +6241,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -6256,7 +6255,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -6270,7 +6269,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -6284,7 +6283,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -6298,7 +6297,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -6312,7 +6311,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -6326,7 +6325,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -6340,7 +6339,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -6354,7 +6353,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -6368,7 +6367,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -6382,7 +6381,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -6396,7 +6395,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -6410,7 +6409,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -6424,7 +6423,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -6438,7 +6437,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -6452,7 +6451,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -6466,7 +6465,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -6480,7 +6479,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -6494,7 +6493,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -6508,7 +6507,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6522,7 +6521,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6536,7 +6535,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6550,7 +6549,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6564,7 +6563,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6578,7 +6577,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6592,7 +6591,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6606,7 +6605,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6620,7 +6619,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6634,7 +6633,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6648,7 +6647,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6662,7 +6661,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6676,7 +6675,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6690,7 +6689,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6704,7 +6703,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6718,7 +6717,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6732,7 +6731,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6746,7 +6745,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6760,7 +6759,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6774,7 +6773,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6788,7 +6787,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6802,7 +6801,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6816,7 +6815,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6830,7 +6829,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6844,7 +6843,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6858,7 +6857,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6872,7 +6871,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6886,7 +6885,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6900,7 +6899,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6914,7 +6913,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6928,7 +6927,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6942,7 +6941,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6956,7 +6955,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6970,7 +6969,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>

--- a/fuentes/contenidos/grado07/guion05/Escaleta_MA_07_05_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion05/Escaleta_MA_07_05_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cen_3f_cdo_pc10a\Google Drive\2. AulaPlaneta\EDICION\2. MA_07_05_CO\Copia GH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\---Adriana\Documents\GitHub\Matematicas\fuentes\contenidos\grado07\guion05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="265">
   <si>
     <t>Asignatura</t>
   </si>
@@ -425,9 +425,6 @@
     <t>Identifica fracciones decimales</t>
   </si>
   <si>
-    <t>Resuelve el crucinúmeros de fracciones decimales</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: La representación decimal de un número racional</t>
   </si>
   <si>
@@ -644,9 +641,6 @@
     <t>Recurso M10B-02</t>
   </si>
   <si>
-    <t>Recurso M11A-01</t>
-  </si>
-  <si>
     <t>Recurso M2C-01</t>
   </si>
   <si>
@@ -701,9 +695,6 @@
     <t>Presentar para cada uno de los contenedores los diferentes tipos de clasificación de los números racionales (Positivos, negativos, nulos y enteros) entre las opciones de arrastre diferentes fracciones en las que el estudiante deba analizar productos entre signos o caracterizar su numerador o denominador.</t>
   </si>
   <si>
-    <t>Presentar a partir del recurso un crucinúmero en el que se expongan como pistas fracciones con denominadores 2, 5, 4, etc, que se pueden convertir en fracciones decimales</t>
-  </si>
-  <si>
     <t xml:space="preserve">Presentar en el recurso enunciados en los que el estudiante a partir del despliegue de opciones pueda completar de forma coherente la oración teniendo en cuenta un número decimal de referencia, por ejemplo: El número 0.36 es un decimal _______   que tiene _____ cifras decimales. El número 6 ocupa la posición de las ______; con el fin de que identifique as características de cada número y lo clasifique.  </t>
   </si>
   <si>
@@ -804,9 +795,6 @@
   </si>
   <si>
     <t>Secuencia de imágenes para explicar fracción inversa, negativa y opuesta</t>
-  </si>
-  <si>
-    <t>Actividad para representar un número racional como decimal</t>
   </si>
   <si>
     <t>Actividad que propone asociar una fracción al tipo de decimal que le corresponda</t>
@@ -1145,22 +1133,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1200,6 +1179,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1506,127 +1494,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W283"/>
+  <dimension ref="A1:W282"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.1796875" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.42578125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.453125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" style="25" customWidth="1"/>
     <col min="9" max="9" width="11" style="25" customWidth="1"/>
-    <col min="10" max="10" width="42.42578125" style="19" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" style="19" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="19" customWidth="1"/>
-    <col min="15" max="15" width="52.7109375" style="41" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="25" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="42.453125" style="19" customWidth="1"/>
+    <col min="11" max="12" width="13.453125" style="19" customWidth="1"/>
+    <col min="13" max="14" width="9.26953125" style="19" customWidth="1"/>
+    <col min="15" max="15" width="52.7265625" style="41" customWidth="1"/>
+    <col min="16" max="16" width="16.54296875" style="25" customWidth="1"/>
+    <col min="17" max="17" width="20.453125" style="25" customWidth="1"/>
     <col min="18" max="18" width="23" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" style="19" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="19"/>
+    <col min="19" max="19" width="20.7265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7265625" style="19" customWidth="1"/>
+    <col min="22" max="16384" width="11.453125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:23" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="54"/>
+      <c r="O1" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="58" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="52"/>
+    <row r="2" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="13" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="43"/>
-    </row>
-    <row r="3" spans="1:23" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="58"/>
+    </row>
+    <row r="3" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -1637,7 +1625,7 @@
         <v>123</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="11"/>
@@ -1651,7 +1639,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>20</v>
@@ -1664,7 +1652,7 @@
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P3" s="22" t="s">
         <v>19</v>
@@ -1673,25 +1661,25 @@
         <v>6</v>
       </c>
       <c r="R3" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="T3" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="U3" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="T3" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="U3" s="32" t="s">
-        <v>213</v>
-      </c>
       <c r="V3" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="W3" s="36">
         <v>45261</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1702,7 +1690,7 @@
         <v>123</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="21"/>
@@ -1716,7 +1704,7 @@
         <v>19</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>19</v>
@@ -1734,19 +1722,19 @@
         <v>8</v>
       </c>
       <c r="R4" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="S4" s="32" t="s">
         <v>188</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>189</v>
       </c>
       <c r="T4" s="35" t="s">
         <v>123</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1757,10 +1745,10 @@
         <v>123</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="15" t="s">
@@ -1773,7 +1761,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>20</v>
@@ -1786,7 +1774,7 @@
         <v>33</v>
       </c>
       <c r="O5" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P5" s="22" t="s">
         <v>19</v>
@@ -1795,25 +1783,25 @@
         <v>6</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S5" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="U5" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V5" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="W5" s="36">
         <v>47088</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1824,7 +1812,7 @@
         <v>123</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
@@ -1838,7 +1826,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>20</v>
@@ -1849,7 +1837,7 @@
       <c r="M6" s="7"/>
       <c r="N6" s="14"/>
       <c r="O6" s="39" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P6" s="22" t="s">
         <v>19</v>
@@ -1858,19 +1846,19 @@
         <v>6</v>
       </c>
       <c r="R6" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="S6" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="T6" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="U6" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="T6" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="U6" s="32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1881,7 +1869,7 @@
         <v>123</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
@@ -1895,7 +1883,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>20</v>
@@ -1908,7 +1896,7 @@
         <v>40</v>
       </c>
       <c r="O7" s="39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P7" s="22" t="s">
         <v>19</v>
@@ -1917,25 +1905,25 @@
         <v>6</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S7" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="T7" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="T7" s="34" t="s">
+      <c r="U7" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="U7" s="32" t="s">
-        <v>202</v>
-      </c>
       <c r="V7" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="W7" s="36">
         <v>37987</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1946,10 +1934,10 @@
         <v>123</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="15" t="s">
@@ -1962,7 +1950,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>19</v>
@@ -1980,19 +1968,19 @@
         <v>8</v>
       </c>
       <c r="R8" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="S8" s="32" t="s">
         <v>188</v>
-      </c>
-      <c r="S8" s="32" t="s">
-        <v>189</v>
       </c>
       <c r="T8" s="35" t="s">
         <v>128</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -2003,13 +1991,13 @@
         <v>123</v>
       </c>
       <c r="D9" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>250</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>253</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>129</v>
@@ -2021,7 +2009,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>20</v>
@@ -2034,7 +2022,7 @@
         <v>118</v>
       </c>
       <c r="O9" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P9" s="22" t="s">
         <v>19</v>
@@ -2043,25 +2031,25 @@
         <v>6</v>
       </c>
       <c r="R9" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T9" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="W9" s="36">
         <v>37987</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -2072,10 +2060,10 @@
         <v>123</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="15" t="s">
@@ -2088,7 +2076,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>20</v>
@@ -2108,25 +2096,25 @@
         <v>6</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S10" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U10" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="W10" s="36">
         <v>47088</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -2137,10 +2125,10 @@
         <v>123</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="15" t="s">
@@ -2153,7 +2141,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>19</v>
@@ -2171,19 +2159,19 @@
         <v>5</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S11" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T11" s="35" t="s">
         <v>131</v>
       </c>
       <c r="U11" s="32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -2194,7 +2182,7 @@
         <v>123</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
@@ -2208,7 +2196,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>20</v>
@@ -2228,25 +2216,25 @@
         <v>6</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S12" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T12" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U12" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="W12" s="36">
         <v>38353</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
@@ -2257,9 +2245,11 @@
         <v>123</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="20"/>
+        <v>180</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>179</v>
+      </c>
       <c r="F13" s="21"/>
       <c r="G13" s="15" t="s">
         <v>133</v>
@@ -2271,7 +2261,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>260</v>
+        <v>164</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>20</v>
@@ -2281,37 +2271,35 @@
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="39" t="s">
-        <v>225</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="O13" s="39"/>
       <c r="P13" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="32">
         <v>6</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S13" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T13" s="34" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="U13" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V13" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="W13" s="36">
         <v>38353</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
@@ -2324,9 +2312,7 @@
       <c r="D14" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="E14" s="20"/>
       <c r="F14" s="21"/>
       <c r="G14" s="15" t="s">
         <v>134</v>
@@ -2335,48 +2321,40 @@
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>165</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M14" s="7"/>
-      <c r="N14" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="39"/>
       <c r="P14" s="22" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="S14" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="T14" s="34" t="s">
-        <v>204</v>
+        <v>134</v>
+      </c>
+      <c r="T14" s="35" t="s">
+        <v>134</v>
       </c>
       <c r="U14" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="V14" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="W14" s="36">
-        <v>38353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -2387,7 +2365,7 @@
         <v>123</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
@@ -2398,16 +2376,16 @@
         <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -2419,19 +2397,19 @@
         <v>8</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S15" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="U15" s="32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -2442,7 +2420,7 @@
         <v>123</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
@@ -2456,37 +2434,47 @@
         <v>20</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="39"/>
+      <c r="N16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="39" t="s">
+        <v>223</v>
+      </c>
       <c r="P16" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R16" s="33" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="S16" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="T16" s="35" t="s">
-        <v>193</v>
+        <v>199</v>
+      </c>
+      <c r="T16" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="U16" s="32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="V16" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="W16" s="36">
+        <v>38718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -2497,7 +2485,7 @@
         <v>123</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
@@ -2511,7 +2499,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>167</v>
+        <v>258</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>20</v>
@@ -2521,37 +2509,37 @@
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="O17" s="39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="32">
         <v>6</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S17" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T17" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="W17" s="36">
         <v>38718</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
@@ -2562,9 +2550,11 @@
         <v>123</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="E18" s="20"/>
+        <v>181</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>179</v>
+      </c>
       <c r="F18" s="21"/>
       <c r="G18" s="15" t="s">
         <v>138</v>
@@ -2576,7 +2566,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>20</v>
@@ -2586,11 +2576,9 @@
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="39" t="s">
-        <v>227</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="O18" s="39"/>
       <c r="P18" s="22" t="s">
         <v>19</v>
       </c>
@@ -2598,25 +2586,25 @@
         <v>6</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T18" s="34" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="U18" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="W18" s="36">
         <v>38718</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
@@ -2627,11 +2615,9 @@
         <v>123</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>180</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="E19" s="20"/>
       <c r="F19" s="21"/>
       <c r="G19" s="15" t="s">
         <v>139</v>
@@ -2653,9 +2639,11 @@
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O19" s="39"/>
+        <v>22</v>
+      </c>
+      <c r="O19" s="39" t="s">
+        <v>225</v>
+      </c>
       <c r="P19" s="22" t="s">
         <v>19</v>
       </c>
@@ -2663,25 +2651,25 @@
         <v>6</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S19" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T19" s="34" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="U19" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="W19" s="36">
         <v>38718</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
@@ -2692,7 +2680,7 @@
         <v>123</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
@@ -2706,47 +2694,37 @@
         <v>20</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="M20" s="7"/>
-      <c r="N20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O20" s="39" t="s">
-        <v>228</v>
-      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="39"/>
       <c r="P20" s="22" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="S20" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="T20" s="34" t="s">
-        <v>209</v>
+        <v>134</v>
+      </c>
+      <c r="T20" s="35" t="s">
+        <v>193</v>
       </c>
       <c r="U20" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="V20" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="W20" s="36">
-        <v>38718</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
@@ -2757,7 +2735,7 @@
         <v>123</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="21"/>
@@ -2771,7 +2749,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>19</v>
@@ -2789,19 +2767,19 @@
         <v>8</v>
       </c>
       <c r="R21" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T21" s="35" t="s">
         <v>194</v>
       </c>
       <c r="U21" s="32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
@@ -2812,7 +2790,7 @@
         <v>123</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
@@ -2823,40 +2801,50 @@
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="7"/>
+      <c r="M22" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="N22" s="7"/>
-      <c r="O22" s="39"/>
+      <c r="O22" s="39" t="s">
+        <v>226</v>
+      </c>
       <c r="P22" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="T22" s="35" t="s">
-        <v>195</v>
+        <v>209</v>
+      </c>
+      <c r="T22" s="34" t="s">
+        <v>212</v>
       </c>
       <c r="U22" s="32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="V22" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="W22" s="36">
+        <v>39814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
@@ -2867,9 +2855,11 @@
         <v>123</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="E23" s="20"/>
+        <v>252</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>179</v>
+      </c>
       <c r="F23" s="21"/>
       <c r="G23" s="15" t="s">
         <v>143</v>
@@ -2878,7 +2868,7 @@
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J23" s="18" t="s">
         <v>170</v>
@@ -2889,39 +2879,36 @@
       <c r="L23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="O23" s="39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P23" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="32">
         <v>6</v>
       </c>
       <c r="R23" s="33" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="S23" s="32" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="T23" s="34" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="U23" s="32" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="V23" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="W23" s="36">
-        <v>39814</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
@@ -2932,11 +2919,9 @@
         <v>123</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>180</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E24" s="20"/>
       <c r="F24" s="21"/>
       <c r="G24" s="15" t="s">
         <v>144</v>
@@ -2948,7 +2933,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>20</v>
@@ -2957,12 +2942,8 @@
         <v>8</v>
       </c>
       <c r="M24" s="7"/>
-      <c r="N24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O24" s="39" t="s">
-        <v>230</v>
-      </c>
+      <c r="N24" s="14"/>
+      <c r="O24" s="39"/>
       <c r="P24" s="22" t="s">
         <v>19</v>
       </c>
@@ -2970,22 +2951,19 @@
         <v>6</v>
       </c>
       <c r="R24" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="S24" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S24" s="32" t="s">
-        <v>200</v>
-      </c>
       <c r="T24" s="34" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="U24" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="V24" s="19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>15</v>
       </c>
@@ -2995,8 +2973,8 @@
       <c r="C25" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="37" t="s">
-        <v>183</v>
+      <c r="D25" s="24" t="s">
+        <v>253</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="21"/>
@@ -3010,7 +2988,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>20</v>
@@ -3019,28 +2997,38 @@
         <v>8</v>
       </c>
       <c r="M25" s="7"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="39"/>
+      <c r="N25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" s="39" t="s">
+        <v>228</v>
+      </c>
       <c r="P25" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q25" s="32">
         <v>6</v>
       </c>
       <c r="R25" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S25" s="32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T25" s="34" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="U25" s="32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="V25" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="W25" s="36">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>15</v>
       </c>
@@ -3051,7 +3039,7 @@
         <v>123</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
@@ -3065,7 +3053,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>20</v>
@@ -3075,37 +3063,37 @@
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O26" s="39" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P26" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="32">
         <v>6</v>
       </c>
       <c r="R26" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S26" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T26" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U26" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V26" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="W26" s="36">
-        <v>40909</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
@@ -3116,21 +3104,23 @@
         <v>123</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="E27" s="20"/>
+        <v>253</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>179</v>
+      </c>
       <c r="F27" s="21"/>
       <c r="G27" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="11">
         <v>25</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>20</v>
@@ -3140,11 +3130,9 @@
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O27" s="39" t="s">
-        <v>232</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="O27" s="39"/>
       <c r="P27" s="22" t="s">
         <v>19</v>
       </c>
@@ -3152,25 +3140,25 @@
         <v>6</v>
       </c>
       <c r="R27" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S27" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T27" s="34" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="U27" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V27" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="W27" s="36">
-        <v>41275</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>15</v>
       </c>
@@ -3181,23 +3169,21 @@
         <v>123</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>180</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E28" s="20"/>
       <c r="F28" s="21"/>
       <c r="G28" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="22">
         <v>26</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>20</v>
@@ -3207,7 +3193,7 @@
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="O28" s="39"/>
       <c r="P28" s="22" t="s">
@@ -3217,25 +3203,25 @@
         <v>6</v>
       </c>
       <c r="R28" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S28" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T28" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="U28" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="V28" s="19" t="s">
         <v>246</v>
-      </c>
-      <c r="U28" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="V28" s="19" t="s">
-        <v>249</v>
       </c>
       <c r="W28" s="36">
         <v>40909</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>15</v>
       </c>
@@ -3246,7 +3232,7 @@
         <v>123</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="21"/>
@@ -3260,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>20</v>
@@ -3270,9 +3256,11 @@
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O29" s="39"/>
+        <v>39</v>
+      </c>
+      <c r="O29" s="39" t="s">
+        <v>230</v>
+      </c>
       <c r="P29" s="22" t="s">
         <v>19</v>
       </c>
@@ -3280,25 +3268,25 @@
         <v>6</v>
       </c>
       <c r="R29" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S29" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T29" s="34" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="U29" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V29" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="W29" s="36">
-        <v>40909</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
@@ -3309,21 +3297,23 @@
         <v>123</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E30" s="20"/>
+        <v>183</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>179</v>
+      </c>
       <c r="F30" s="21"/>
       <c r="G30" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="11">
         <v>28</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>20</v>
@@ -3333,10 +3323,10 @@
       </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="O30" s="39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P30" s="22" t="s">
         <v>19</v>
@@ -3345,25 +3335,25 @@
         <v>6</v>
       </c>
       <c r="R30" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S30" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T30" s="34" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="U30" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V30" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="W30" s="36">
         <v>41640</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>15</v>
       </c>
@@ -3376,61 +3366,49 @@
       <c r="D31" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E31" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="E31" s="20"/>
       <c r="F31" s="21"/>
       <c r="G31" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="22">
         <v>29</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="M31" s="7"/>
-      <c r="N31" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O31" s="39" t="s">
-        <v>234</v>
-      </c>
+      <c r="N31" s="7"/>
+      <c r="O31" s="39"/>
       <c r="P31" s="22" t="s">
         <v>19</v>
       </c>
       <c r="Q31" s="32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R31" s="33" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="S31" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="T31" s="34" t="s">
-        <v>247</v>
+        <v>188</v>
+      </c>
+      <c r="T31" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="U31" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="V31" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="W31" s="36">
-        <v>41640</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>15</v>
       </c>
@@ -3441,21 +3419,21 @@
         <v>123</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="21"/>
       <c r="G32" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="11">
         <v>30</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>19</v>
@@ -3465,7 +3443,9 @@
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="39"/>
+      <c r="O32" s="39" t="s">
+        <v>12</v>
+      </c>
       <c r="P32" s="22" t="s">
         <v>19</v>
       </c>
@@ -3473,19 +3453,19 @@
         <v>8</v>
       </c>
       <c r="R32" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S32" s="32" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="T32" s="35" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="U32" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>15</v>
       </c>
@@ -3496,53 +3476,61 @@
         <v>123</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="21"/>
       <c r="G33" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="22">
         <v>31</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
+      <c r="N33" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="O33" s="39" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="P33" s="22" t="s">
         <v>19</v>
       </c>
       <c r="Q33" s="32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R33" s="33" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="S33" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="T33" s="35" t="s">
-        <v>196</v>
+        <v>199</v>
+      </c>
+      <c r="T33" s="34" t="s">
+        <v>240</v>
       </c>
       <c r="U33" s="32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="V33" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="W33" s="36">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>15</v>
       </c>
@@ -3553,9 +3541,11 @@
         <v>123</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" s="20"/>
+        <v>184</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>179</v>
+      </c>
       <c r="F34" s="21"/>
       <c r="G34" s="15" t="s">
         <v>154</v>
@@ -3567,7 +3557,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>20</v>
@@ -3577,10 +3567,10 @@
       </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="O34" s="39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P34" s="22" t="s">
         <v>19</v>
@@ -3589,25 +3579,25 @@
         <v>6</v>
       </c>
       <c r="R34" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S34" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T34" s="34" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="U34" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V34" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="W34" s="36">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>15</v>
       </c>
@@ -3620,61 +3610,49 @@
       <c r="D35" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="E35" s="20"/>
       <c r="F35" s="21"/>
       <c r="G35" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="11">
         <v>33</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>8</v>
       </c>
       <c r="M35" s="7"/>
-      <c r="N35" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O35" s="39" t="s">
-        <v>236</v>
-      </c>
+      <c r="N35" s="7"/>
+      <c r="O35" s="39"/>
       <c r="P35" s="22" t="s">
         <v>19</v>
       </c>
       <c r="Q35" s="32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R35" s="33" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="S35" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="T35" s="34" t="s">
-        <v>248</v>
+        <v>188</v>
+      </c>
+      <c r="T35" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="U35" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="V35" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="W35" s="36">
-        <v>41640</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>15</v>
       </c>
@@ -3685,21 +3663,21 @@
         <v>123</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
       <c r="G36" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="22">
         <v>34</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>268</v>
+        <v>175</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>19</v>
@@ -3709,7 +3687,9 @@
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="39"/>
+      <c r="O36" s="39" t="s">
+        <v>234</v>
+      </c>
       <c r="P36" s="22" t="s">
         <v>19</v>
       </c>
@@ -3717,19 +3697,19 @@
         <v>8</v>
       </c>
       <c r="R36" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S36" s="32" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="T36" s="35" t="s">
         <v>156</v>
       </c>
       <c r="U36" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>15</v>
       </c>
@@ -3740,53 +3720,41 @@
         <v>123</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="21"/>
       <c r="G37" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="H37" s="22">
+        <v>10</v>
+      </c>
+      <c r="H37" s="11">
         <v>35</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="39" t="s">
-        <v>237</v>
-      </c>
+      <c r="O37" s="39"/>
       <c r="P37" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="32">
-        <v>8</v>
-      </c>
-      <c r="R37" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="S37" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="T37" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="U37" s="32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q37" s="32"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="32"/>
+    </row>
+    <row r="38" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>15</v>
       </c>
@@ -3797,41 +3765,59 @@
         <v>123</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="21"/>
       <c r="G38" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="11">
+        <v>157</v>
+      </c>
+      <c r="H38" s="22">
         <v>36</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
+      <c r="N38" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="O38" s="39"/>
       <c r="P38" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="32"/>
-    </row>
-    <row r="39" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q38" s="32">
+        <v>6</v>
+      </c>
+      <c r="R38" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="S38" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="T38" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="U38" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="V38" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="W38" s="36">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>15</v>
       </c>
@@ -3846,8 +3832,8 @@
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="21"/>
-      <c r="G39" s="15" t="s">
-        <v>158</v>
+      <c r="G39" s="29" t="s">
+        <v>186</v>
       </c>
       <c r="H39" s="22">
         <v>37</v>
@@ -3855,9 +3841,7 @@
       <c r="I39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="18" t="s">
-        <v>177</v>
-      </c>
+      <c r="J39" s="31"/>
       <c r="K39" s="6" t="s">
         <v>20</v>
       </c>
@@ -3866,98 +3850,60 @@
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O39" s="39"/>
+        <v>52</v>
+      </c>
+      <c r="O39" s="39" t="s">
+        <v>235</v>
+      </c>
       <c r="P39" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q39" s="32">
         <v>6</v>
       </c>
       <c r="R39" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S39" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T39" s="34" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="U39" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V39" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="W39" s="36">
         <v>42005</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>187</v>
-      </c>
+    <row r="40" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="8"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="20"/>
       <c r="F40" s="21"/>
-      <c r="G40" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="H40" s="22">
-        <v>38</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="G40" s="29"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="4"/>
       <c r="J40" s="31"/>
-      <c r="K40" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="K40" s="6"/>
+      <c r="L40" s="5"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O40" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="P40" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q40" s="32">
-        <v>6</v>
-      </c>
-      <c r="R40" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="S40" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="T40" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="U40" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="V40" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="W40" s="36">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N40" s="7"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="26"/>
+    </row>
+    <row r="41" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="20"/>
       <c r="C41" s="30"/>
@@ -3980,7 +3926,7 @@
       <c r="T41" s="28"/>
       <c r="U41" s="26"/>
     </row>
-    <row r="42" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="20"/>
       <c r="C42" s="30"/>
@@ -4003,7 +3949,7 @@
       <c r="T42" s="28"/>
       <c r="U42" s="26"/>
     </row>
-    <row r="43" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="20"/>
       <c r="C43" s="30"/>
@@ -4026,7 +3972,7 @@
       <c r="T43" s="28"/>
       <c r="U43" s="26"/>
     </row>
-    <row r="44" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="20"/>
       <c r="C44" s="30"/>
@@ -4049,7 +3995,7 @@
       <c r="T44" s="28"/>
       <c r="U44" s="26"/>
     </row>
-    <row r="45" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="20"/>
       <c r="C45" s="30"/>
@@ -4072,7 +4018,7 @@
       <c r="T45" s="28"/>
       <c r="U45" s="26"/>
     </row>
-    <row r="46" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="20"/>
       <c r="C46" s="30"/>
@@ -4095,7 +4041,7 @@
       <c r="T46" s="28"/>
       <c r="U46" s="26"/>
     </row>
-    <row r="47" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="20"/>
       <c r="C47" s="30"/>
@@ -4118,7 +4064,7 @@
       <c r="T47" s="28"/>
       <c r="U47" s="26"/>
     </row>
-    <row r="48" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="20"/>
       <c r="C48" s="30"/>
@@ -4141,8 +4087,8 @@
       <c r="T48" s="28"/>
       <c r="U48" s="26"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+    <row r="49" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
       <c r="B49" s="20"/>
       <c r="C49" s="30"/>
       <c r="D49" s="24"/>
@@ -4164,7 +4110,7 @@
       <c r="T49" s="28"/>
       <c r="U49" s="26"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="20"/>
       <c r="C50" s="30"/>
@@ -4187,7 +4133,7 @@
       <c r="T50" s="28"/>
       <c r="U50" s="26"/>
     </row>
-    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="20"/>
       <c r="C51" s="30"/>
@@ -4210,7 +4156,7 @@
       <c r="T51" s="28"/>
       <c r="U51" s="26"/>
     </row>
-    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="20"/>
       <c r="C52" s="30"/>
@@ -4233,7 +4179,7 @@
       <c r="T52" s="28"/>
       <c r="U52" s="26"/>
     </row>
-    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="20"/>
       <c r="C53" s="30"/>
@@ -4256,7 +4202,7 @@
       <c r="T53" s="28"/>
       <c r="U53" s="26"/>
     </row>
-    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="20"/>
       <c r="C54" s="30"/>
@@ -4279,7 +4225,7 @@
       <c r="T54" s="28"/>
       <c r="U54" s="26"/>
     </row>
-    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="20"/>
       <c r="C55" s="30"/>
@@ -4302,7 +4248,7 @@
       <c r="T55" s="28"/>
       <c r="U55" s="26"/>
     </row>
-    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="20"/>
       <c r="C56" s="30"/>
@@ -4325,7 +4271,7 @@
       <c r="T56" s="28"/>
       <c r="U56" s="26"/>
     </row>
-    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="20"/>
       <c r="C57" s="30"/>
@@ -4348,7 +4294,7 @@
       <c r="T57" s="28"/>
       <c r="U57" s="26"/>
     </row>
-    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="20"/>
       <c r="C58" s="30"/>
@@ -4371,7 +4317,7 @@
       <c r="T58" s="28"/>
       <c r="U58" s="26"/>
     </row>
-    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="20"/>
       <c r="C59" s="30"/>
@@ -4394,7 +4340,7 @@
       <c r="T59" s="28"/>
       <c r="U59" s="26"/>
     </row>
-    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="20"/>
       <c r="C60" s="30"/>
@@ -4417,7 +4363,7 @@
       <c r="T60" s="28"/>
       <c r="U60" s="26"/>
     </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="20"/>
       <c r="C61" s="30"/>
@@ -4440,7 +4386,7 @@
       <c r="T61" s="28"/>
       <c r="U61" s="26"/>
     </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="20"/>
       <c r="C62" s="30"/>
@@ -4463,7 +4409,7 @@
       <c r="T62" s="28"/>
       <c r="U62" s="26"/>
     </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="20"/>
       <c r="C63" s="30"/>
@@ -4486,7 +4432,7 @@
       <c r="T63" s="28"/>
       <c r="U63" s="26"/>
     </row>
-    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="20"/>
       <c r="C64" s="30"/>
@@ -4509,7 +4455,7 @@
       <c r="T64" s="28"/>
       <c r="U64" s="26"/>
     </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="20"/>
       <c r="C65" s="30"/>
@@ -4532,7 +4478,7 @@
       <c r="T65" s="28"/>
       <c r="U65" s="26"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="20"/>
       <c r="C66" s="30"/>
@@ -4547,7 +4493,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="39"/>
+      <c r="O66" s="40"/>
       <c r="P66" s="21"/>
       <c r="Q66" s="26"/>
       <c r="R66" s="27"/>
@@ -4555,7 +4501,7 @@
       <c r="T66" s="28"/>
       <c r="U66" s="26"/>
     </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="20"/>
       <c r="C67" s="30"/>
@@ -4578,7 +4524,7 @@
       <c r="T67" s="28"/>
       <c r="U67" s="26"/>
     </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="20"/>
       <c r="C68" s="30"/>
@@ -4601,392 +4547,375 @@
       <c r="T68" s="28"/>
       <c r="U68" s="26"/>
     </row>
-    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="26"/>
-      <c r="R69" s="27"/>
-      <c r="S69" s="26"/>
-      <c r="T69" s="28"/>
-      <c r="U69" s="26"/>
-    </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5001,12 +4930,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5017,31 +4940,31 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N69</xm:sqref>
+          <xm:sqref>N3:N68</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A69</xm:sqref>
+          <xm:sqref>A3:A68</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I69 K3:K69 P3:P69</xm:sqref>
+          <xm:sqref>P3:P68 K3:K68 I3:I68</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L69</xm:sqref>
+          <xm:sqref>L3:L68</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M69</xm:sqref>
+          <xm:sqref>M3:M68</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5057,27 +4980,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="11.453125" style="1"/>
+    <col min="14" max="14" width="24.26953125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.81640625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5094,7 +5017,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5118,7 +5041,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5137,7 +5060,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -5156,7 +5079,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -5172,7 +5095,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -5189,7 +5112,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -5206,7 +5129,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5221,7 +5144,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5236,7 +5159,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5251,7 +5174,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5266,7 +5189,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5281,7 +5204,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -5296,7 +5219,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5311,7 +5234,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5326,7 +5249,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5341,7 +5264,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -5355,7 +5278,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -5369,7 +5292,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -5383,7 +5306,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -5397,7 +5320,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5412,7 +5335,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5427,7 +5350,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5442,7 +5365,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -5457,7 +5380,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -5472,7 +5395,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -5487,7 +5410,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -5502,7 +5425,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -5517,7 +5440,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -5532,7 +5455,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -5547,7 +5470,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5562,7 +5485,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5577,7 +5500,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5592,7 +5515,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5607,7 +5530,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5622,7 +5545,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5637,7 +5560,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5652,7 +5575,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5667,7 +5590,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5682,7 +5605,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5697,7 +5620,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5712,7 +5635,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5727,7 +5650,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5742,7 +5665,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5757,7 +5680,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5772,7 +5695,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5787,7 +5710,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -5802,7 +5725,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -5817,7 +5740,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5829,7 +5752,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5841,7 +5764,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5854,7 +5777,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5867,7 +5790,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5880,7 +5803,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -5893,7 +5816,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -5906,7 +5829,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5919,7 +5842,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5932,7 +5855,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5945,7 +5868,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5958,7 +5881,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5971,7 +5894,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5984,7 +5907,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5997,7 +5920,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -6010,7 +5933,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -6023,7 +5946,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -6036,7 +5959,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -6049,7 +5972,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -6062,7 +5985,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -6075,7 +5998,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -6088,7 +6011,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -6101,7 +6024,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -6115,7 +6038,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6129,7 +6052,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -6143,7 +6066,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6157,7 +6080,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -6171,7 +6094,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6185,7 +6108,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -6199,7 +6122,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6213,7 +6136,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6227,7 +6150,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -6241,7 +6164,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -6255,7 +6178,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -6269,7 +6192,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -6283,7 +6206,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -6297,7 +6220,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -6311,7 +6234,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -6325,7 +6248,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -6339,7 +6262,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -6353,7 +6276,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -6367,7 +6290,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -6381,7 +6304,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -6395,7 +6318,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -6409,7 +6332,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -6423,7 +6346,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -6437,7 +6360,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -6451,7 +6374,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -6465,7 +6388,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -6479,7 +6402,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -6493,7 +6416,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -6507,7 +6430,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6521,7 +6444,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6535,7 +6458,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6549,7 +6472,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6563,7 +6486,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6577,7 +6500,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6591,7 +6514,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6605,7 +6528,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6619,7 +6542,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6633,7 +6556,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6647,7 +6570,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6661,7 +6584,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6675,7 +6598,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6689,7 +6612,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6703,7 +6626,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6717,7 +6640,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6731,7 +6654,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6745,7 +6668,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6759,7 +6682,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6773,7 +6696,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6787,7 +6710,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6801,7 +6724,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6815,7 +6738,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6829,7 +6752,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6843,7 +6766,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6857,7 +6780,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6871,7 +6794,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6885,7 +6808,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6899,7 +6822,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6913,7 +6836,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6927,7 +6850,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6941,7 +6864,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6955,7 +6878,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6969,7 +6892,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>

--- a/fuentes/contenidos/grado07/guion05/Escaleta_MA_07_05_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion05/Escaleta_MA_07_05_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\---Adriana\Documents\GitHub\Matematicas\fuentes\contenidos\grado07\guion05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cen_3f_cdo_pc10a\Google Drive\2. AulaPlaneta\EDICION\2. MA_07_05_CO\Copia GH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="269">
   <si>
     <t>Asignatura</t>
   </si>
@@ -425,6 +425,9 @@
     <t>Identifica fracciones decimales</t>
   </si>
   <si>
+    <t>Resuelve el crucinúmeros de fracciones decimales</t>
+  </si>
+  <si>
     <t>Refuerza tu aprendizaje: La representación decimal de un número racional</t>
   </si>
   <si>
@@ -641,6 +644,9 @@
     <t>Recurso M10B-02</t>
   </si>
   <si>
+    <t>Recurso M11A-01</t>
+  </si>
+  <si>
     <t>Recurso M2C-01</t>
   </si>
   <si>
@@ -695,6 +701,9 @@
     <t>Presentar para cada uno de los contenedores los diferentes tipos de clasificación de los números racionales (Positivos, negativos, nulos y enteros) entre las opciones de arrastre diferentes fracciones en las que el estudiante deba analizar productos entre signos o caracterizar su numerador o denominador.</t>
   </si>
   <si>
+    <t>Presentar a partir del recurso un crucinúmero en el que se expongan como pistas fracciones con denominadores 2, 5, 4, etc, que se pueden convertir en fracciones decimales</t>
+  </si>
+  <si>
     <t xml:space="preserve">Presentar en el recurso enunciados en los que el estudiante a partir del despliegue de opciones pueda completar de forma coherente la oración teniendo en cuenta un número decimal de referencia, por ejemplo: El número 0.36 es un decimal _______   que tiene _____ cifras decimales. El número 6 ocupa la posición de las ______; con el fin de que identifique as características de cada número y lo clasifique.  </t>
   </si>
   <si>
@@ -795,6 +804,9 @@
   </si>
   <si>
     <t>Secuencia de imágenes para explicar fracción inversa, negativa y opuesta</t>
+  </si>
+  <si>
+    <t>Actividad para representar un número racional como decimal</t>
   </si>
   <si>
     <t>Actividad que propone asociar una fracción al tipo de decimal que le corresponda</t>
@@ -1133,13 +1145,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1179,15 +1200,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1494,127 +1506,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W282"/>
+  <dimension ref="A1:W283"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.453125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.42578125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="25" customWidth="1"/>
     <col min="9" max="9" width="11" style="25" customWidth="1"/>
-    <col min="10" max="10" width="42.453125" style="19" customWidth="1"/>
-    <col min="11" max="12" width="13.453125" style="19" customWidth="1"/>
-    <col min="13" max="14" width="9.26953125" style="19" customWidth="1"/>
-    <col min="15" max="15" width="52.7265625" style="41" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" style="25" customWidth="1"/>
-    <col min="17" max="17" width="20.453125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="42.42578125" style="19" customWidth="1"/>
+    <col min="11" max="12" width="13.42578125" style="19" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="52.7109375" style="41" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="25" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="25" customWidth="1"/>
     <col min="18" max="18" width="23" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7265625" style="19" customWidth="1"/>
-    <col min="22" max="16384" width="11.453125" style="19"/>
+    <col min="19" max="19" width="20.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" style="19" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:23" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="44" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="59" t="s">
+      <c r="T1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="43" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="49"/>
+    <row r="2" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="13" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="58"/>
-    </row>
-    <row r="3" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="43"/>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -1625,7 +1637,7 @@
         <v>123</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="11"/>
@@ -1639,7 +1651,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>20</v>
@@ -1652,7 +1664,7 @@
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="39" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P3" s="22" t="s">
         <v>19</v>
@@ -1661,25 +1673,25 @@
         <v>6</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="U3" s="32" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="V3" s="19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="W3" s="36">
         <v>45261</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1690,7 +1702,7 @@
         <v>123</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="21"/>
@@ -1704,7 +1716,7 @@
         <v>19</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>19</v>
@@ -1722,19 +1734,19 @@
         <v>8</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T4" s="35" t="s">
         <v>123</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1745,10 +1757,10 @@
         <v>123</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="15" t="s">
@@ -1761,7 +1773,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>20</v>
@@ -1774,7 +1786,7 @@
         <v>33</v>
       </c>
       <c r="O5" s="39" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P5" s="22" t="s">
         <v>19</v>
@@ -1783,25 +1795,25 @@
         <v>6</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S5" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="U5" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V5" s="19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="W5" s="36">
         <v>47088</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1812,7 +1824,7 @@
         <v>123</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
@@ -1826,7 +1838,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>20</v>
@@ -1837,7 +1849,7 @@
       <c r="M6" s="7"/>
       <c r="N6" s="14"/>
       <c r="O6" s="39" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P6" s="22" t="s">
         <v>19</v>
@@ -1846,19 +1858,19 @@
         <v>6</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S6" s="32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T6" s="34" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="U6" s="32" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1869,7 +1881,7 @@
         <v>123</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
@@ -1883,7 +1895,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>20</v>
@@ -1896,7 +1908,7 @@
         <v>40</v>
       </c>
       <c r="O7" s="39" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P7" s="22" t="s">
         <v>19</v>
@@ -1905,25 +1917,25 @@
         <v>6</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S7" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T7" s="34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V7" s="19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="W7" s="36">
         <v>37987</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1934,10 +1946,10 @@
         <v>123</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="15" t="s">
@@ -1950,7 +1962,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>19</v>
@@ -1968,19 +1980,19 @@
         <v>8</v>
       </c>
       <c r="R8" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S8" s="32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T8" s="35" t="s">
         <v>128</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1991,13 +2003,13 @@
         <v>123</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>129</v>
@@ -2009,7 +2021,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>20</v>
@@ -2022,7 +2034,7 @@
         <v>118</v>
       </c>
       <c r="O9" s="39" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P9" s="22" t="s">
         <v>19</v>
@@ -2031,25 +2043,25 @@
         <v>6</v>
       </c>
       <c r="R9" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T9" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="U9" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="U9" s="32" t="s">
-        <v>201</v>
-      </c>
       <c r="V9" s="19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="W9" s="36">
         <v>37987</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -2060,10 +2072,10 @@
         <v>123</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="15" t="s">
@@ -2076,7 +2088,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>20</v>
@@ -2096,25 +2108,25 @@
         <v>6</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S10" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U10" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="W10" s="36">
         <v>47088</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -2125,10 +2137,10 @@
         <v>123</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="15" t="s">
@@ -2141,7 +2153,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>19</v>
@@ -2159,19 +2171,19 @@
         <v>5</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S11" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T11" s="35" t="s">
         <v>131</v>
       </c>
       <c r="U11" s="32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -2182,7 +2194,7 @@
         <v>123</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
@@ -2196,7 +2208,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>20</v>
@@ -2216,25 +2228,25 @@
         <v>6</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S12" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T12" s="34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U12" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="W12" s="36">
         <v>38353</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
@@ -2245,11 +2257,9 @@
         <v>123</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>179</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E13" s="20"/>
       <c r="F13" s="21"/>
       <c r="G13" s="15" t="s">
         <v>133</v>
@@ -2261,7 +2271,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>20</v>
@@ -2271,35 +2281,37 @@
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O13" s="39"/>
+        <v>44</v>
+      </c>
+      <c r="O13" s="39" t="s">
+        <v>225</v>
+      </c>
       <c r="P13" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="32">
         <v>6</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S13" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T13" s="34" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="U13" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V13" s="19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="W13" s="36">
         <v>38353</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
@@ -2312,7 +2324,9 @@
       <c r="D14" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="F14" s="21"/>
       <c r="G14" s="15" t="s">
         <v>134</v>
@@ -2321,40 +2335,48 @@
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>165</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
+      <c r="N14" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="O14" s="39"/>
       <c r="P14" s="22" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="S14" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="T14" s="35" t="s">
-        <v>134</v>
+        <v>200</v>
+      </c>
+      <c r="T14" s="34" t="s">
+        <v>204</v>
       </c>
       <c r="U14" s="32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+      <c r="V14" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="W14" s="36">
+        <v>38353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -2365,7 +2387,7 @@
         <v>123</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
@@ -2376,16 +2398,16 @@
         <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -2397,19 +2419,19 @@
         <v>8</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S15" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T15" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="U15" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="U15" s="32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -2420,7 +2442,7 @@
         <v>123</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
@@ -2434,47 +2456,37 @@
         <v>20</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="M16" s="7"/>
-      <c r="N16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" s="39" t="s">
-        <v>223</v>
-      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="39"/>
       <c r="P16" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R16" s="33" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="S16" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="T16" s="34" t="s">
-        <v>205</v>
+        <v>135</v>
+      </c>
+      <c r="T16" s="35" t="s">
+        <v>193</v>
       </c>
       <c r="U16" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="V16" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="W16" s="36">
-        <v>38718</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -2485,7 +2497,7 @@
         <v>123</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="21"/>
@@ -2499,7 +2511,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>20</v>
@@ -2509,37 +2521,37 @@
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="O17" s="39" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="32">
         <v>6</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S17" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T17" s="34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="W17" s="36">
         <v>38718</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
@@ -2550,11 +2562,9 @@
         <v>123</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>179</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E18" s="20"/>
       <c r="F18" s="21"/>
       <c r="G18" s="15" t="s">
         <v>138</v>
@@ -2566,7 +2576,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>20</v>
@@ -2576,9 +2586,11 @@
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O18" s="39"/>
+        <v>43</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>227</v>
+      </c>
       <c r="P18" s="22" t="s">
         <v>19</v>
       </c>
@@ -2586,25 +2598,25 @@
         <v>6</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T18" s="34" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="U18" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="W18" s="36">
         <v>38718</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
@@ -2615,9 +2627,11 @@
         <v>123</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="E19" s="20"/>
+        <v>182</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="F19" s="21"/>
       <c r="G19" s="15" t="s">
         <v>139</v>
@@ -2639,11 +2653,9 @@
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="39" t="s">
-        <v>225</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="O19" s="39"/>
       <c r="P19" s="22" t="s">
         <v>19</v>
       </c>
@@ -2651,25 +2663,25 @@
         <v>6</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S19" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T19" s="34" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="U19" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="W19" s="36">
         <v>38718</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
@@ -2680,7 +2692,7 @@
         <v>123</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
@@ -2694,37 +2706,47 @@
         <v>20</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="39"/>
+      <c r="N20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="39" t="s">
+        <v>228</v>
+      </c>
       <c r="P20" s="22" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="S20" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="T20" s="35" t="s">
-        <v>193</v>
+        <v>200</v>
+      </c>
+      <c r="T20" s="34" t="s">
+        <v>209</v>
       </c>
       <c r="U20" s="32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+      <c r="V20" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="W20" s="36">
+        <v>38718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
@@ -2735,7 +2757,7 @@
         <v>123</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="21"/>
@@ -2749,7 +2771,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>19</v>
@@ -2767,19 +2789,19 @@
         <v>8</v>
       </c>
       <c r="R21" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T21" s="35" t="s">
         <v>194</v>
       </c>
       <c r="U21" s="32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
@@ -2790,7 +2812,7 @@
         <v>123</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
@@ -2801,50 +2823,40 @@
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="39" t="s">
-        <v>226</v>
-      </c>
+      <c r="O22" s="39"/>
       <c r="P22" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="T22" s="34" t="s">
-        <v>212</v>
+        <v>135</v>
+      </c>
+      <c r="T22" s="35" t="s">
+        <v>195</v>
       </c>
       <c r="U22" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="V22" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="W22" s="36">
-        <v>39814</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
@@ -2855,11 +2867,9 @@
         <v>123</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>179</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="E23" s="20"/>
       <c r="F23" s="21"/>
       <c r="G23" s="15" t="s">
         <v>143</v>
@@ -2868,7 +2878,7 @@
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23" s="18" t="s">
         <v>170</v>
@@ -2879,36 +2889,39 @@
       <c r="L23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="M23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="39" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P23" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="32">
         <v>6</v>
       </c>
       <c r="R23" s="33" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="S23" s="32" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="T23" s="34" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="U23" s="32" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="V23" s="19" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="W23" s="36">
+        <v>39814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
@@ -2919,9 +2932,11 @@
         <v>123</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="20"/>
+        <v>255</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="F24" s="21"/>
       <c r="G24" s="15" t="s">
         <v>144</v>
@@ -2933,7 +2948,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>20</v>
@@ -2942,8 +2957,12 @@
         <v>8</v>
       </c>
       <c r="M24" s="7"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="39"/>
+      <c r="N24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="39" t="s">
+        <v>230</v>
+      </c>
       <c r="P24" s="22" t="s">
         <v>19</v>
       </c>
@@ -2951,19 +2970,22 @@
         <v>6</v>
       </c>
       <c r="R24" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S24" s="32" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="T24" s="34" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="U24" s="32" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+      <c r="V24" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>15</v>
       </c>
@@ -2973,8 +2995,8 @@
       <c r="C25" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>253</v>
+      <c r="D25" s="37" t="s">
+        <v>183</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="21"/>
@@ -2988,7 +3010,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>20</v>
@@ -2997,38 +3019,28 @@
         <v>8</v>
       </c>
       <c r="M25" s="7"/>
-      <c r="N25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O25" s="39" t="s">
-        <v>228</v>
-      </c>
+      <c r="N25" s="14"/>
+      <c r="O25" s="39"/>
       <c r="P25" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="32">
         <v>6</v>
       </c>
       <c r="R25" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S25" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="T25" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="U25" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="T25" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="U25" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="V25" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="W25" s="36">
-        <v>40909</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>15</v>
       </c>
@@ -3039,7 +3051,7 @@
         <v>123</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
@@ -3053,7 +3065,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>20</v>
@@ -3063,37 +3075,37 @@
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O26" s="39" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P26" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="32">
         <v>6</v>
       </c>
       <c r="R26" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S26" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T26" s="34" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="U26" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V26" s="19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="W26" s="36">
-        <v>41275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
@@ -3104,23 +3116,21 @@
         <v>123</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>179</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="E27" s="20"/>
       <c r="F27" s="21"/>
       <c r="G27" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="22">
         <v>25</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>20</v>
@@ -3130,9 +3140,11 @@
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O27" s="39"/>
+        <v>39</v>
+      </c>
+      <c r="O27" s="39" t="s">
+        <v>232</v>
+      </c>
       <c r="P27" s="22" t="s">
         <v>19</v>
       </c>
@@ -3140,25 +3152,25 @@
         <v>6</v>
       </c>
       <c r="R27" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S27" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T27" s="34" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="U27" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V27" s="19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="W27" s="36">
-        <v>40909</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>41275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>15</v>
       </c>
@@ -3169,21 +3181,23 @@
         <v>123</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="E28" s="20"/>
+        <v>256</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="F28" s="21"/>
       <c r="G28" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="11">
         <v>26</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>20</v>
@@ -3193,7 +3207,7 @@
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="O28" s="39"/>
       <c r="P28" s="22" t="s">
@@ -3203,25 +3217,25 @@
         <v>6</v>
       </c>
       <c r="R28" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S28" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T28" s="34" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="U28" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V28" s="19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="W28" s="36">
         <v>40909</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>15</v>
       </c>
@@ -3232,7 +3246,7 @@
         <v>123</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="21"/>
@@ -3246,7 +3260,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>20</v>
@@ -3256,11 +3270,9 @@
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O29" s="39" t="s">
-        <v>230</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="O29" s="39"/>
       <c r="P29" s="22" t="s">
         <v>19</v>
       </c>
@@ -3268,25 +3280,25 @@
         <v>6</v>
       </c>
       <c r="R29" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S29" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T29" s="34" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="U29" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V29" s="19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="W29" s="36">
-        <v>41640</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>15</v>
       </c>
@@ -3297,23 +3309,21 @@
         <v>123</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>179</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E30" s="20"/>
       <c r="F30" s="21"/>
       <c r="G30" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="22">
         <v>28</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>20</v>
@@ -3323,10 +3333,10 @@
       </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="O30" s="39" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P30" s="22" t="s">
         <v>19</v>
@@ -3335,25 +3345,25 @@
         <v>6</v>
       </c>
       <c r="R30" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S30" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T30" s="34" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="U30" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V30" s="19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="W30" s="36">
         <v>41640</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>15</v>
       </c>
@@ -3366,49 +3376,61 @@
       <c r="D31" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="F31" s="21"/>
       <c r="G31" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="11">
         <v>29</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>261</v>
+        <v>175</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="39"/>
+      <c r="N31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O31" s="39" t="s">
+        <v>234</v>
+      </c>
       <c r="P31" s="22" t="s">
         <v>19</v>
       </c>
       <c r="Q31" s="32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R31" s="33" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="S31" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="T31" s="35" t="s">
-        <v>151</v>
+        <v>200</v>
+      </c>
+      <c r="T31" s="34" t="s">
+        <v>247</v>
       </c>
       <c r="U31" s="32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+      <c r="V31" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="W31" s="36">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>15</v>
       </c>
@@ -3419,21 +3441,21 @@
         <v>123</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="21"/>
       <c r="G32" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="22">
         <v>30</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>19</v>
@@ -3443,9 +3465,7 @@
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="39" t="s">
-        <v>12</v>
-      </c>
+      <c r="O32" s="39"/>
       <c r="P32" s="22" t="s">
         <v>19</v>
       </c>
@@ -3453,19 +3473,19 @@
         <v>8</v>
       </c>
       <c r="R32" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S32" s="32" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="T32" s="35" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="U32" s="32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>15</v>
       </c>
@@ -3476,61 +3496,53 @@
         <v>123</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="21"/>
       <c r="G33" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="11">
         <v>31</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="M33" s="7"/>
-      <c r="N33" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="N33" s="7"/>
       <c r="O33" s="39" t="s">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="P33" s="22" t="s">
         <v>19</v>
       </c>
       <c r="Q33" s="32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R33" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="S33" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="T33" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="S33" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="T33" s="34" t="s">
-        <v>240</v>
-      </c>
       <c r="U33" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="V33" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="W33" s="36">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>15</v>
       </c>
@@ -3541,11 +3553,9 @@
         <v>123</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>179</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E34" s="20"/>
       <c r="F34" s="21"/>
       <c r="G34" s="15" t="s">
         <v>154</v>
@@ -3557,7 +3567,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>20</v>
@@ -3567,10 +3577,10 @@
       </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="O34" s="39" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P34" s="22" t="s">
         <v>19</v>
@@ -3579,25 +3589,25 @@
         <v>6</v>
       </c>
       <c r="R34" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S34" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T34" s="34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="U34" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V34" s="19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="W34" s="36">
-        <v>41640</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>15</v>
       </c>
@@ -3610,49 +3620,61 @@
       <c r="D35" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E35" s="20"/>
+      <c r="E35" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="F35" s="21"/>
       <c r="G35" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="22">
         <v>33</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>8</v>
       </c>
       <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="39"/>
+      <c r="N35" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O35" s="39" t="s">
+        <v>236</v>
+      </c>
       <c r="P35" s="22" t="s">
         <v>19</v>
       </c>
       <c r="Q35" s="32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R35" s="33" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="S35" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="T35" s="35" t="s">
-        <v>155</v>
+        <v>200</v>
+      </c>
+      <c r="T35" s="34" t="s">
+        <v>248</v>
       </c>
       <c r="U35" s="32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+      <c r="V35" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="W35" s="36">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>15</v>
       </c>
@@ -3663,21 +3685,21 @@
         <v>123</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
       <c r="G36" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="11">
         <v>34</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>19</v>
@@ -3687,9 +3709,7 @@
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="39" t="s">
-        <v>234</v>
-      </c>
+      <c r="O36" s="39"/>
       <c r="P36" s="22" t="s">
         <v>19</v>
       </c>
@@ -3697,19 +3717,19 @@
         <v>8</v>
       </c>
       <c r="R36" s="33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S36" s="32" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="T36" s="35" t="s">
         <v>156</v>
       </c>
       <c r="U36" s="32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>15</v>
       </c>
@@ -3720,41 +3740,53 @@
         <v>123</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="21"/>
       <c r="G37" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="11">
+        <v>157</v>
+      </c>
+      <c r="H37" s="22">
         <v>35</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="39"/>
+      <c r="O37" s="39" t="s">
+        <v>237</v>
+      </c>
       <c r="P37" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="32"/>
-    </row>
-    <row r="38" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q37" s="32">
+        <v>8</v>
+      </c>
+      <c r="R37" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="S37" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="T37" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="U37" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>15</v>
       </c>
@@ -3765,59 +3797,41 @@
         <v>123</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="21"/>
       <c r="G38" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="H38" s="22">
+        <v>10</v>
+      </c>
+      <c r="H38" s="11">
         <v>36</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>176</v>
+        <v>241</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M38" s="7"/>
-      <c r="N38" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="N38" s="7"/>
       <c r="O38" s="39"/>
       <c r="P38" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="32">
-        <v>6</v>
-      </c>
-      <c r="R38" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="S38" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="T38" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="U38" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="V38" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="W38" s="36">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q38" s="32"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="32"/>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>15</v>
       </c>
@@ -3832,8 +3846,8 @@
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="21"/>
-      <c r="G39" s="29" t="s">
-        <v>186</v>
+      <c r="G39" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="H39" s="22">
         <v>37</v>
@@ -3841,7 +3855,9 @@
       <c r="I39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="31"/>
+      <c r="J39" s="18" t="s">
+        <v>177</v>
+      </c>
       <c r="K39" s="6" t="s">
         <v>20</v>
       </c>
@@ -3850,60 +3866,98 @@
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O39" s="39" t="s">
-        <v>235</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="O39" s="39"/>
       <c r="P39" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q39" s="32">
         <v>6</v>
       </c>
       <c r="R39" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S39" s="32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T39" s="34" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="U39" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V39" s="19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="W39" s="36">
         <v>42005</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="8"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="24"/>
+    <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>187</v>
+      </c>
       <c r="E40" s="20"/>
       <c r="F40" s="21"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="4"/>
+      <c r="G40" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="H40" s="22">
+        <v>38</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="J40" s="31"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="5"/>
+      <c r="K40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="26"/>
-    </row>
-    <row r="41" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N40" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O40" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="P40" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="32">
+        <v>6</v>
+      </c>
+      <c r="R40" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="S40" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="T40" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="U40" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="V40" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="W40" s="36">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="20"/>
       <c r="C41" s="30"/>
@@ -3926,7 +3980,7 @@
       <c r="T41" s="28"/>
       <c r="U41" s="26"/>
     </row>
-    <row r="42" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="20"/>
       <c r="C42" s="30"/>
@@ -3949,7 +4003,7 @@
       <c r="T42" s="28"/>
       <c r="U42" s="26"/>
     </row>
-    <row r="43" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="20"/>
       <c r="C43" s="30"/>
@@ -3972,7 +4026,7 @@
       <c r="T43" s="28"/>
       <c r="U43" s="26"/>
     </row>
-    <row r="44" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="20"/>
       <c r="C44" s="30"/>
@@ -3995,7 +4049,7 @@
       <c r="T44" s="28"/>
       <c r="U44" s="26"/>
     </row>
-    <row r="45" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="20"/>
       <c r="C45" s="30"/>
@@ -4018,7 +4072,7 @@
       <c r="T45" s="28"/>
       <c r="U45" s="26"/>
     </row>
-    <row r="46" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="20"/>
       <c r="C46" s="30"/>
@@ -4041,7 +4095,7 @@
       <c r="T46" s="28"/>
       <c r="U46" s="26"/>
     </row>
-    <row r="47" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="20"/>
       <c r="C47" s="30"/>
@@ -4064,7 +4118,7 @@
       <c r="T47" s="28"/>
       <c r="U47" s="26"/>
     </row>
-    <row r="48" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="20"/>
       <c r="C48" s="30"/>
@@ -4087,8 +4141,8 @@
       <c r="T48" s="28"/>
       <c r="U48" s="26"/>
     </row>
-    <row r="49" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
+    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
       <c r="B49" s="20"/>
       <c r="C49" s="30"/>
       <c r="D49" s="24"/>
@@ -4110,7 +4164,7 @@
       <c r="T49" s="28"/>
       <c r="U49" s="26"/>
     </row>
-    <row r="50" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="20"/>
       <c r="C50" s="30"/>
@@ -4133,7 +4187,7 @@
       <c r="T50" s="28"/>
       <c r="U50" s="26"/>
     </row>
-    <row r="51" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="20"/>
       <c r="C51" s="30"/>
@@ -4156,7 +4210,7 @@
       <c r="T51" s="28"/>
       <c r="U51" s="26"/>
     </row>
-    <row r="52" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="20"/>
       <c r="C52" s="30"/>
@@ -4179,7 +4233,7 @@
       <c r="T52" s="28"/>
       <c r="U52" s="26"/>
     </row>
-    <row r="53" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="20"/>
       <c r="C53" s="30"/>
@@ -4202,7 +4256,7 @@
       <c r="T53" s="28"/>
       <c r="U53" s="26"/>
     </row>
-    <row r="54" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="20"/>
       <c r="C54" s="30"/>
@@ -4225,7 +4279,7 @@
       <c r="T54" s="28"/>
       <c r="U54" s="26"/>
     </row>
-    <row r="55" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="20"/>
       <c r="C55" s="30"/>
@@ -4248,7 +4302,7 @@
       <c r="T55" s="28"/>
       <c r="U55" s="26"/>
     </row>
-    <row r="56" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="20"/>
       <c r="C56" s="30"/>
@@ -4271,7 +4325,7 @@
       <c r="T56" s="28"/>
       <c r="U56" s="26"/>
     </row>
-    <row r="57" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="20"/>
       <c r="C57" s="30"/>
@@ -4294,7 +4348,7 @@
       <c r="T57" s="28"/>
       <c r="U57" s="26"/>
     </row>
-    <row r="58" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="20"/>
       <c r="C58" s="30"/>
@@ -4317,7 +4371,7 @@
       <c r="T58" s="28"/>
       <c r="U58" s="26"/>
     </row>
-    <row r="59" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="20"/>
       <c r="C59" s="30"/>
@@ -4340,7 +4394,7 @@
       <c r="T59" s="28"/>
       <c r="U59" s="26"/>
     </row>
-    <row r="60" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="20"/>
       <c r="C60" s="30"/>
@@ -4363,7 +4417,7 @@
       <c r="T60" s="28"/>
       <c r="U60" s="26"/>
     </row>
-    <row r="61" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="20"/>
       <c r="C61" s="30"/>
@@ -4386,7 +4440,7 @@
       <c r="T61" s="28"/>
       <c r="U61" s="26"/>
     </row>
-    <row r="62" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="20"/>
       <c r="C62" s="30"/>
@@ -4409,7 +4463,7 @@
       <c r="T62" s="28"/>
       <c r="U62" s="26"/>
     </row>
-    <row r="63" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="20"/>
       <c r="C63" s="30"/>
@@ -4432,7 +4486,7 @@
       <c r="T63" s="28"/>
       <c r="U63" s="26"/>
     </row>
-    <row r="64" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="20"/>
       <c r="C64" s="30"/>
@@ -4455,7 +4509,7 @@
       <c r="T64" s="28"/>
       <c r="U64" s="26"/>
     </row>
-    <row r="65" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="20"/>
       <c r="C65" s="30"/>
@@ -4478,7 +4532,7 @@
       <c r="T65" s="28"/>
       <c r="U65" s="26"/>
     </row>
-    <row r="66" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="20"/>
       <c r="C66" s="30"/>
@@ -4493,7 +4547,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="40"/>
+      <c r="O66" s="39"/>
       <c r="P66" s="21"/>
       <c r="Q66" s="26"/>
       <c r="R66" s="27"/>
@@ -4501,7 +4555,7 @@
       <c r="T66" s="28"/>
       <c r="U66" s="26"/>
     </row>
-    <row r="67" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="20"/>
       <c r="C67" s="30"/>
@@ -4524,7 +4578,7 @@
       <c r="T67" s="28"/>
       <c r="U67" s="26"/>
     </row>
-    <row r="68" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="20"/>
       <c r="C68" s="30"/>
@@ -4547,375 +4601,392 @@
       <c r="T68" s="28"/>
       <c r="U68" s="26"/>
     </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="19" t="s">
+    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="26"/>
+      <c r="T69" s="28"/>
+      <c r="U69" s="26"/>
+    </row>
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="19" t="s">
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="19" t="s">
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="19" t="s">
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="19" t="s">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="19" t="s">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="19" t="s">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="19" t="s">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="19" t="s">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="19" t="s">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="19" t="s">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="19" t="s">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="19" t="s">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="19" t="s">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="19" t="s">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="19" t="s">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="19" t="s">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="19" t="s">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="19" t="s">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="19" t="s">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="19" t="s">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="19" t="s">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="19" t="s">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="19" t="s">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="19" t="s">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="19" t="s">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="19" t="s">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="19" t="s">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="19" t="s">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="19" t="s">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="19" t="s">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="19" t="s">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="19" t="s">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="19" t="s">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="19" t="s">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="19" t="s">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="19" t="s">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4930,6 +5001,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4940,31 +5017,31 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N68</xm:sqref>
+          <xm:sqref>N3:N69</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A68</xm:sqref>
+          <xm:sqref>A3:A69</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P68 K3:K68 I3:I68</xm:sqref>
+          <xm:sqref>I3:I69 K3:K69 P3:P69</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L68</xm:sqref>
+          <xm:sqref>L3:L69</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M68</xm:sqref>
+          <xm:sqref>M3:M69</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4980,27 +5057,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" style="1"/>
-    <col min="14" max="14" width="24.26953125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.453125" style="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -5017,7 +5094,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5041,7 +5118,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -5060,7 +5137,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -5079,7 +5156,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -5095,7 +5172,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -5112,7 +5189,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -5129,7 +5206,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5144,7 +5221,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5159,7 +5236,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -5174,7 +5251,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5189,7 +5266,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5204,7 +5281,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -5219,7 +5296,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5234,7 +5311,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5249,7 +5326,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5264,7 +5341,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -5278,7 +5355,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -5292,7 +5369,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -5306,7 +5383,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -5320,7 +5397,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5335,7 +5412,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5350,7 +5427,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5365,7 +5442,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -5380,7 +5457,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -5395,7 +5472,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -5410,7 +5487,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -5425,7 +5502,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -5440,7 +5517,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -5455,7 +5532,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -5470,7 +5547,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5485,7 +5562,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5500,7 +5577,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5515,7 +5592,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5530,7 +5607,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5545,7 +5622,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5560,7 +5637,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5575,7 +5652,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5590,7 +5667,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5605,7 +5682,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5620,7 +5697,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5635,7 +5712,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5650,7 +5727,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5665,7 +5742,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5680,7 +5757,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -5695,7 +5772,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5710,7 +5787,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -5725,7 +5802,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -5740,7 +5817,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5752,7 +5829,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5764,7 +5841,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5777,7 +5854,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5790,7 +5867,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5803,7 +5880,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -5816,7 +5893,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -5829,7 +5906,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5842,7 +5919,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5855,7 +5932,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5868,7 +5945,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5881,7 +5958,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5894,7 +5971,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5907,7 +5984,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5920,7 +5997,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -5933,7 +6010,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -5946,7 +6023,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5959,7 +6036,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -5972,7 +6049,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -5985,7 +6062,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -5998,7 +6075,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -6011,7 +6088,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -6024,7 +6101,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -6038,7 +6115,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -6052,7 +6129,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -6066,7 +6143,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6080,7 +6157,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -6094,7 +6171,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -6108,7 +6185,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -6122,7 +6199,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6136,7 +6213,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6150,7 +6227,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -6164,7 +6241,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -6178,7 +6255,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -6192,7 +6269,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -6206,7 +6283,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -6220,7 +6297,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -6234,7 +6311,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -6248,7 +6325,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -6262,7 +6339,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -6276,7 +6353,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -6290,7 +6367,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -6304,7 +6381,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -6318,7 +6395,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -6332,7 +6409,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -6346,7 +6423,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -6360,7 +6437,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -6374,7 +6451,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -6388,7 +6465,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -6402,7 +6479,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -6416,7 +6493,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -6430,7 +6507,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6444,7 +6521,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6458,7 +6535,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6472,7 +6549,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6486,7 +6563,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6500,7 +6577,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6514,7 +6591,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6528,7 +6605,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6542,7 +6619,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6556,7 +6633,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6570,7 +6647,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6584,7 +6661,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6598,7 +6675,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6612,7 +6689,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6626,7 +6703,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6640,7 +6717,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6654,7 +6731,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6668,7 +6745,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6682,7 +6759,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6696,7 +6773,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6710,7 +6787,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6724,7 +6801,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6738,7 +6815,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6752,7 +6829,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6766,7 +6843,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6780,7 +6857,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6794,7 +6871,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6808,7 +6885,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6822,7 +6899,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6836,7 +6913,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6850,7 +6927,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6864,7 +6941,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6878,7 +6955,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6892,7 +6969,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
